--- a/biology/Médecine/Prix_spécial_Albert-Lasker/Prix_spécial_Albert-Lasker.xlsx
+++ b/biology/Médecine/Prix_spécial_Albert-Lasker/Prix_spécial_Albert-Lasker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_sp%C3%A9cial_Albert-Lasker</t>
+          <t>Prix_spécial_Albert-Lasker</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix spécial Albert-Lasker est l'un des quatre prix Albert-Lasker décernés par la Fondation Lasker. C'est le dernier des prix créé par celle-ci en 1994 pour récompenser l'accomplissement exceptionnel de la carrière d'un scientifique. Ce prix, qui est décerné tous les deux ans (années paires, puis à compter de 2021 années impaires) en alternance avec le prix Mary-Woodard Lasker pour le bien public, a été rebaptisé prix spécial Lasker-Koshland en science médicale en l'honneur de Daniel Koshland.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_sp%C3%A9cial_Albert-Lasker</t>
+          <t>Prix_spécial_Albert-Lasker</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Récipiendaires du prix spécial Albert-Lasker</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les récipiendaires du prix sont[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les récipiendaires du prix sont :
 1994 : Maclyn McCarty
 1996 : Paul Zamecnik
 1997 : Victor McKusick
